--- a/02_work_doc/01_daten/02_toolUebersicht/2024_01_09_EWB_Tools_Uebersicht_v2.1.xlsx
+++ b/02_work_doc/01_daten/02_toolUebersicht/2024_01_09_EWB_Tools_Uebersicht_v2.1.xlsx
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1169">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -2002,1318 +2002,1327 @@
     <t xml:space="preserve">03EN1011</t>
   </si>
   <si>
+    <t xml:space="preserve">highcharts_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynOptEn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iosb.fraunhofer.de/de/projekte-produkte/dynopt-en.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DynOpt-En ist ein dynamisches Optimierungsmodul für die angebots- und bedarfsgerechte Anbindung von Energiequellen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Optronik, Systemtechnik und Bildauswertung IOSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Monitoring, Optimierung, Planung, Steuerung, Regelung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingenieur:innen, Endnutzer:innen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Webinterface wurde in der Literatur dargestellt, aber bei unserer Aktualisierung (November 2023) sind auf der Projektwebseite weder ein Download noch weitere Informationen über das Tool verfügbar. Kommerzielle Umsetzung geplant laut Projektwebweite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ETS001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynopt_logo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windheizung 2.0 Planungstool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibp.fraunhofer.de/de/projekte-referenzen/windheizung-2-0.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windheizung 2.0 Planungstool ist eine Software zur Planung und Optimierung von Windheizung 2.0 Gebäuden, die überschüssige Windenergie zum Heizen nutzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Bauphysik IBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN6013A, 03ET1612A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandaspipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pandapipes.org/; https://github.com/e2nIEE/pandapipes/tree/develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandapipes ist ein einfach zu bedienendes Netzberechnungsprogramm, das auf die Automatisierung der Analyse von Fernwärme- und Gassystemen ausgerichtet ist. Es nutzt die Datenanalysebibliothek pandas und ist auch eng mit dem Stromnetzberechnungsprogramm pandapower verwandt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE; Fachgebiet Energiemanagement und Betrieb elektrischer Netze, Universität Kassel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eine Python-Bibliothek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartier/Netze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Klausel-BSD-Lizenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenz: https://pandapipes.readthedocs.io/en/latest/about/license.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandaspipes.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therakles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bauklimatik-dresden.de/therakles/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Simulationsprogramm THERAKLES berechnet das dynamische thermische oder hygrothermische Verhalten von Räumen und Gebäuden. Es ist ein Berechnungswerkzeug für planende Ingenieure und Architekten im Bereich der Bauphysik, des Bauklimas und der technischen Gebäudeausrüstung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Andreas Nicolai, Dr.-Ing. Peggy Freudenberg und Dipl.-Ing. Heiko Fechner von Bauklimatik Dresden Software GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THERAKLES ist als kostenfreie und kommerzielle Professional-Version verfügbar. Die freie Version ist hinsichtlich der Verwendung in kommerziellen Projekten nicht eingeschränkt. Details siehe https://www.bauklimatik-dresden.de/therakles/bestellen.php?aLa=de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1215C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN 4108-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therakles.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openFOAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.openfoam.com/; https://openfoam.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenFOAM (Open Field Operation And Manipulation) ist eine C++-Toolbox für die Entwicklung kundenspezifischer numerischer Solver und Pre-/Post-Processing-Hilfsprogramme für die Lösung von Problemen der Kontinuumsmechanik, vor allem der numerischen Strömungsmechanik (CFD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCFD Ltd/ESI Group; OpenFOAM Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eine C++-Toolbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_saturne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1230B, 03ET1363A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openFOAM.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterSim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bauklimatik-dresden.de/mastersim/index.php?aLa=de; https://github.com/ghorwin/MasterSim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterSim ist ein Co-Simulations-Masterprogramm, welches die Mock-Up-Interface (FMI)-Co-Simulation unterstützt. MasterSim verbindet verschiedene Simulationsmodelle und tauscht Daten zwischen Simulation-Slaves zur Laufzeit aus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Andreas Nicolai von Bauklimatik Dresden Software GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterSim.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTPROC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bauklimatik-dresden.de/postproc/index.php?aLa=de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostProc 2 ist eine Software für die Analyse und Nachbearbeitung von zeitabhängigen Daten, die z.B. in dynamischen Simulationsprogrammen oder aus Messdaten erzeugt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Andreas Nicolai und Dipl.-Ing. Heiko Fechner von Bauklimatik Dresden Software GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring , Visualisierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baufachleute, Ingenieur:innen, Informatiker:innen/Software-Entwickler:innen, Endnutzer:innen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTPROC 2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Template for Residential Energy Supply Systems (MTRESS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mtress/mtress; https://elib.dlr.de/142201/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Template for Residential Energy Supply Systems (MTRESS) ist ein generisches Modell für oemof.solph, das eine Vielzahl von möglichen Technologiekombinationen für Energieversorgungssysteme bietet. Es ist darauf ausgerichtet, die Energieflüsse zwischen allen Komponenten innerhalb des Systems zu berechnen und Regelungsstrategien zu optimieren, die feste Bedarfszeitreihen für Strom, Wärme und Warmwasser unter Verwendung einer beliebigen Kombination der implementierten Versorgungstechnologien erfüllen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsches Zentrum für Luft- und Raumfahrt e.V. (DLR); KEHAG Energiehandel GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oemof.solph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch, betrieblich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTRESS 3.0 befindet sich in der Entwicklung und fügt die H2-Infrastruktur hinzu. Eventuell werden KPI und ein Pareto-Optimierer hinzugefügt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oemof.solph; PyGMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03SBE111U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RWTH-EBC/BESMod; https://2022.american.conference.modelica.org/documents/01_papers/02_full/1_Wullhorst.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESMod ist eine quelloffene Modelica-Bibliothek, die einen modularen und benutzerfreundlichen Ansatz für bereichsübergreifende Simulationen von Energiesystemen in Gebäuden bietet und Bereiche wie Hydraulik, Lüftung, Elektrik, Steuerung und Gebäudehülle abdeckt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lehrstuhl für Gebäude- und Raumklimatechnik, RWTH Aachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eine Modelica-Bibliothek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelica Standard Library (MSL); IBPSA; AixLib; Buildings; BuildingSystems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">überarbeitete 3-Klausel-BSD-Lizenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenz: https://github.com/RWTH-EBC/BESMod/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESMOD ist eine Modulbibliothek mit standardisierten Modulen, vereinfachter abstrahierter Parametrisierung, die teilweise auf Richtlinien und Normen basiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBPSA; AixLib; Buildings; IDEAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1495A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN EN 15450, DIN EN 12831, DIN EN 16147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BESMod.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSA 2.0 tool-chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/IWUGERMANY/VSA-2.0---Tool-Chain/blob/main/20210211_VSA_2_0_Dokumentation_und_Anleitung.pdf; https://github.com/IWUGERMANY/VSA-2.0---Tool-Chain; https://www.iwu.de/1/research/energie/vsa-20/; https://datanwg.de/downloads/tools/vsa-20/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSA 2.0 ist ein Werkzeug zur Erfassung und Auswertung von Daten zur Energiebilanz vieler Nichtwohngebäude. Es verfolgt als wichtiges Ziel die wissenschaftliche Analyse der Korrelation zwischen einfachen Bedarfsberechnungen mit Verbrauchsmessungen. Die Toolbox VSA 2.0 beinhaltet (1) Datenerfassungstool VSA 2.0 (gefördert von der KfW Bankengruppe), (2) TEK-Tool 9.24 mit Vorlage zur Erzeugung von Gebäude-Kurzberichten, (3) DB Tiefenerhebung (Datenmanagement für Gebäudebestände).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwaltung, Forschung/Lehre, Dienstleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonstiges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Toolchain ist in verschiedene Excel-Dateien integriert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open-source, freeware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative Commons Attribution 4.0 International Public License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenz: https://github.com/IWUGERMANY/VSA-2.0---Tool-Chain/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationen aus der Anleitung:  Systemvoraussetzungen (1) Windows Betriebssystem (Windows 7 oder neuer) (2) Installierte Microsoft Office Desktop Version (2010 oder neuer). Damit VSA 2.0 funktioniert müssen Makros in Word und Excel zugelassen werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1315A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN V 18599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.x3dom.org/; https://github.com/x3dom/x3dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3DOM ist ein quelloffenes JavaScript-Framework zur Erstellung deklarativer 3D-Szenen in Webseiten. Kurz gesagt bedeutet das deklarative 3D-Konzept, dass man eine interaktive 3D-Szene mit Hilfe einer strukturierten, textuellen Darstellung erstellen und anzeigen kann, anstatt Code zu schreiben - und zwar ohne ein Plugin in den Browsern. Im Fall von X3DOM ist diese textuelle Darstellung Teil eines HTML-Dokuments, das eine Webseite darstellt. Auf diese Weise wird der 3D-Inhalt zu einem Bürger erster Klasse innerhalb der Webseite, genau wie Text, Links, Bilder oder Filme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Graphische Datenverarbeitung IGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring, Visualisierung, Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML; JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual lizenziert unter der MIT- und GPL-Lizenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3037verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3dom.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultralytics YOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.ultralytics.com/; https://github.com/ultralytics/ultralytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework zum Erstellen neuralen Netze zur Objekterkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultralytics Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring, Optimierung, Planung, Sontiges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyTorch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kostenpflichtig, open-source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGPL-3.0; Enterprise-Lizenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN1024A|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yolo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ehdo.eonerc.rwth-aachen.de/; https://github.com/RWTH-EBC/EHDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHDO (Energy hub design optimization) ist ein Webtool zur Unterstützung des Planungsprozesses von komplexen Energieversorgungssystemen. EHDO unterstützt die Planung zukünftiger Energieversorgungssysteme und die Abschätzung des Potenzials von erneuerbaren Energien und zukünftigen Energieträgern wie Wasserstoff. Eine breite Palette innovativer Technologien wie Brennstoffzellen, Elektrolyseure, Wasserstoffspeicher, Photovoltaik- und Windkraftanlagen sowie Biomasse- und Waste-to-Energy-Technologien können in dem Tool berücksichtigt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch, betrieblich, ökologische</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHDO.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEASER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ebc-tools.eonerc.rwth-aachen.de/teaser; https://github.com/RWTH-EBC/TEASER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEASER (Tool for Energy Analysis and Simulation for Efficient Retrofit) ist ein offenes Werkzeug für die städtische Energiemodellierung des vorhandenen Gebäudebestands. TEASER bietet eine benutzerfreundliche Schnittstelle für verschiedene Datenquellen (z. B. CityGML, SQL, ...) sowie die Möglichkeit zur Datenanreicherung, falls erforderlich. Darüber hinaus ermöglicht TEASER den Export von gebrauchsfertigen Modelica-Simulationsmodellen für alle Bibliotheken, die die Modelica IBPSA-Bibliothek unterstützen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AixLib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1352A, 03ET1405A, 03ET1177A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN 4108, DIN 277, DIN 12524, DIN V 18599, DINV185993, DIN EN 15242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaser.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uesgraphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ebc-tools.eonerc.rwth-aachen.de/en/uesgraphs; https://github.com/RWTH-EBC/uesgraphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uesgraphs ist eine Python-Bibliothek zur Beschreibung städtischer Energiesysteme und zur Verwaltung ihrer Daten in einer Python-Graphenstruktur. Die Graph-Klasse in networkx wurde erweitert, um Gebäude und Energienetze im Graphen darzustellen. uesgraphs kann als Grundlage für die Analyse von Energienetzstrukturen, die Bewertung von Fernwärmesystemen oder die Erstellung von Simulationsmodellen verwendet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommandozeile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">networkx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1352A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uesgraphs.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Energy Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openenergy-platform.org/; https://github.com/OpenEnergyPlatform/oeplatform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Open Energy Platform (OEP) ist ein kollaboratives, versioniertes Datensatz-Repository für die Speicherung offener Energiesystem-Modelldatensätze. Sie erleichtert die gemeinsame Nutzung, Analyse und Visualisierung von Energiedaten, um Forschung, Planung und Entscheidungsfindung im Energiesektor zu unterstützen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Energy Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Monitoring, Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python, Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGPL-3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Quellcode der Open Energy Platform ist auf GitHub veröffentlicht. Das Repository ist unter der GNU Affero General Public License v3.0 (AGPL-3.0) lizenziert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openEnergy.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO-HANDlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://innosued.de/energie/geothermie-software-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO-HANDlight ist eine kostenlose Software, die die Planung von Erdwärmesonden unterstützt. Das Programm ermöglicht die Berechnung einzelner Erdwärmesonden bis hin zu Sondenfeldern in verschiedenen Anordnungen. Dabei werden relevante Auslegungsgrenzen überprüft, und Parameter wie Fluidtemperaturen sowie Temperaturreaktionen in der Sonde und im Erdreich können präzise bestimmt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hochschule Biberach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Planung, Optimierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://react.dev/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React ist eine JavaScript-Bibliothek für die Entwicklung von Benutzeroberflächen. Sie ermöglicht die effiziente Erstellung von ansprechenden und interaktiven UI-Komponenten. React kann für die Entwicklung von einseitigen, mobilen oder Server-gerenderten Anwendungen verwendet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta Open Source; React Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">React Router, Redux, Material-UI, Styled Components, Next.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB wird hauptsächlich unter einer Open-Source-Lizenz vertrieben. Es bietet jedoch auch eine kommerzielle Version mit zusätzlichen Funktionen und Support an (Details siehe https://www.mongodb.com/pricing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue.js, Angular, Svelte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN1059verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitLab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://about.gitlab.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitLab ist eine webbasierte Plattform für das DevOps-Lifecycle-Management. Sie bietet Funktionen für das Versionsmanagement von Quellcode, kontinuierliche Integration, kontinuierliche Bereitstellung, Container-Orchestrierung und mehr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitLab Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webbasierte Benutzeroberfläche, grafische Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript, Go, Ruby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rails, Sidekiq, Gitaly, Puma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digitale Anwedung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-source, kostenpflichtig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitLab wird hauptsächlich unter einer Open-Source-Lizenz vertrieben. GitLab bietet jedoch auch eine kommerzielle Version mit zusätzlichen Funktionen und Support an (Details siehe https://about.gitlab.com/pricing/).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub, Bitbucket, Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gitlab.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mongodb.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB ist eine dokumentenorientierte NoSQL-Datenbank, die flexibles, skalierbares und leistungsstarkes Datenmanagement ermöglicht. Sie speichert Daten im BSON-Format (Binary JSON) in sogenannten Collections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grafische Benutzeroberfläche, Kommandozeile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB Compass (grafische Benutzeroberfläche)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MongoDB Server Side Public License (SSPL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL, PostgreSQL, CouchDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mongo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfcOpenShell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ifcopenshell.org/; https://github.com/IfcOpenShell/IfcOpenShell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfcOpenShell ist eine Open-Source-Softwarebibliothek, die in C++ und Python verfügbar ist und die Arbeit mit dem Industry Foundation Classes (IFC)-Dateiformat erleichtern soll. Das IFC-Dateiformat kann zur Beschreibung von Gebäude- und Konstruktionsdaten verwendet werden und wird üblicherweise für Building Information Modelling eingesetzt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfcOpenShell Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Visualisierung, Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boost, OpenCascade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGPL-3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartiersgenerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ebc.eonerc.rwth-aachen.de/cms/E-ON-ERC-EBC/Forschung/Forschungsprojekte2/Projekte-Urbane-Energiesysteme/~qgsqr/BF-Quartier2020/; https://github.com/RWTH-EBC/districtgenerator/tree/master?tab=readme-ov-file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Quartiersgenerator ist ein Webtool zum Vergleich von Versorgungskonzepten für Quartiere. Es enthält einen Lastprofilgenerator für indivisualisiebaren Gebäudebstand in Quartier, eine Auslegungsoptimierung zentraler Versorgungsysteme, Betriebsoptimierung verschiedener Technologieszenarien und Bewertung anhand KPIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwaltung, Forschung/Lehre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommandozeile; webbasierte Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabula, richardsonpy, TEASER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch, ökologisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EWB003B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 /2024 (geplannt als ein Webtool)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CasADi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.casadi.org/; https://github.com/casadi/casadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CasADi ist ein Open-Source-Softwaretool für numerische Optimierung im Allgemeinen und optimale Steuerung (d.h. Optimierung mit Differentialgleichungen) im Besonderen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joris Gillis; Joel Andersson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimierung, Planung, Steuerung, Regelung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, C, Python, SWIG, MATLAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-source, freeware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ETS005verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casadi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimescaleDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.timescale.com/; https://github.com/timescale/timescaledb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimescaleDB ist eine Open-Source-SQL-Datenbank für Zeitreihen, die PostgresSQL erweitert und für schnelle Sammlungen und komplexe Abfragen optimiert ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timescale Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details siehe https://github.com/timescale/timescaledb/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timescale.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenStudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openstudio.net/; https://github.com/NREL/OpenStudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenStudio ist eine plattformübergreifende Sammlung von Softwarewerkzeugen zur Unterstützung der Energiemodellierung ganzer Gebäude mit EnergyPlus und der erweiterten Tageslichtanalyse mit Radiance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Renewable Energy Laboratory (USA) u. US Department of Energy; OpenStudio Coalition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baufachleute, Ingenieur:innen, Ingenieur:innen, Informatiker:innen/Software-Entwickler:innen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grafische Benutzeroberfläche; Kommandozeile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenStudio SketchUp Plug-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, Ruby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenStudio License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details siehe https://openstudio.net/license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openstudio.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://julialang.org/; https://github.com/JuliaLang/julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia ist eine hochentwickelte, leistungsstarke dynamische Programmiersprache für technische Berechnungen. Sie ist für numerische und wissenschaftliche Berechnungen konzipiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Computing Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python, R, Matlab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julia.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/QuaSi-Software/resie; https://quasi-software.github.io/Website//static/231119_poster_14_pl_meeting.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resie (Rechenkern für die Simulation von Energiesystemen) ist ein Simulationswerkzeug zur Simulation und Optimierung verschiedener Energieversorgungssysteme für Stadtteile oder Einzelgebäude mit dem Fokus auf Betriebsstrategien, das bereits in frühen Planungsphasen eingesetzt werden kann.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siz energieplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3053A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resie.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenSim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/QuaSi-Software/GenSim; https://www.mdpi.com/1996-1073/16/17/6115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenSim ist ein Werkzeug zur Simulation der Strom- und Wärmebedarfs von Gebäuden, mit einem Fokus auf den frühen Entwurfsphasen. Es kann hochauflösende zeitliche Daten verarbeiten und vereinfacht geometrische Modelle für effiziente Simulationen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maile Consulting; siz energieplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby, VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DesignBuilder, IDA ICE, TRNSYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03SBE115verbund, 03EN3053A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN V 18599-10, ASHRAE 90.1 2013, SIA 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gensim.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stable-baselines3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/DLR-RM/stable-baselines3 ; https://stable-baselines3.readthedocs.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable Baselines3 ist eine zuverlässige, Open-Source Python-Bibliothek für Deep Reinforcement Learning (RL)-Algorithmen. Sie bietet präzise Implementierungen, die durch umfangreiche automatisierte Tests und eine einheitliche Schnittstelle unterstützt werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Robotik und Mechatronik, Deutsches Zentrum für Luft- und Raumfahrt (DLR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stable-baselines3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AixWeather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/RWTH-EBC/AixWeather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AixWeather ist ein Werkzeug zur Erzeugung von Wetterdaten, das für die Simulation von Energiesystemen in Gebäuden entwickelt wurde. Es wird zum Abrufen, Umwandeln und Exportieren von Wetterdaten für Forschung und Simulationen im Zusammenhang mit Gebäudeenergiesystemen verwendet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AixWeather Web App (https://github.com/RWTH-EBC/AixWeather-WebApp) ist eine Webanwendung zur nahtlosen Integration der Funktionen des AixWeather-Repositorys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenz: https://github.com/RWTH-EBC/AixWeather/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AixWeather_Logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHEtool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/wouterpeere/GHEtool; https://ghetool.eu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHEtool ist ein Werkzeug für Bohrfeldberechnungen. GHEtools bietet Zugang zu der Technologie, die notwendig ist, um die geothermische Entwicklung zu beschleunigen und die Machbarkeit geothermischer Lösungen zu erleichtern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Thermal Systems Simulation, KU Leuven; Boydens Engineering; FH Aachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Pro-Version ist verfügbar und die Preise sind unter https://ghetool.eu/pricing/ aufgeführt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHEtool.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR 3S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.3sconsult.de/software/sir-3s/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIR 3S ist ein Softwaretool, das für die Berechnung, Simulation, Analyse und Optimierung von Strömungsvorgängen in Gas-, Wasser- und Wärmeversorgungsnetzen sowie anderen Rohrleitungssystemen entwickelt wurde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3S Consult GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartier/Netze, Region/Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3068verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sir3s.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delphin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bauklimatik-dresden.de/delphin/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELPHIN ist eine Simulationssoftware für gekoppelten Wärme-, Feuchte-, Luft- und Salztransport in porösen Baustoffen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Bauklimatik, TU Dresden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Monitoring, Optimierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delphin ist kostenlos für Studierende. Akademische Lizenzen für Lehre und Forschung sind erhältlich. Details siehe https://bauklimatik-dresden.de/delphin/bestellen.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WUFI, COND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0329663N, 03EN3057verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delphin.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimVicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sim-vicus.de/ ; https://github.com/ghorwin/SIM-VICUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIM-VICUS ist eine 3D-Modellierungsumgebung für Gebäude- und Stadtteilnetze und eine innovative dynamische Simulationsmaschine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL-3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA ICE, Modelica, EnergyPlus, TRNSYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3057verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simvicus.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polysun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.velasolaris.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polysun ist eine Software, mit der sich solarthermische, photovoltaische und geothermische Anlagen effektiv simulieren lassen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vela Solaris AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polysun.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolidWorks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.solidworks.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolidWorks entwickelt und vermarktet Software für computergestütztes Design, computergestütztes Engineering, 3D-CAD-Design und Zusammenarbeit, Analyse und Produktdatenmanagement. SolidWorks wird zur Erstellung von parametrischen Modellen, Baugruppen und technischen Zeichnungen verwendet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dassault Systèmes SolidWorks Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenzierung finden Sie hier: https://www.solidworks.com/how-to-buy/solidworks-licensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidworks.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyConnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iee.fraunhofer.de/de/geschaeftsfelder/digitales-portfoliomanagement/energyconnect.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyConnect ist ein modernes Echtzeit-Leitsystem, das verschiedene dezentrale Energieanlagen zusammenfasst, steuert und überwacht. Es kann als das virtuelle Kraftwerk beschrieben werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualisierung, Monitoring, Steuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPC XML-DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3067verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEC104, Modbus, profibus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyConnect.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexKälte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.umsicht.fraunhofer.de/de/projekte/kaelteversorgung-flexibilisieren.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexkälte ist eine Web-App, die entwickelt wurde, um die Flexibilität von Kälteversorgungssystemen zu erhöhen, insbesondere im Zusammenhang mit dem Ausgleich elektrischer Energie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Umwelt-, Sicherheits- und Energietechnik UMSICHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ETW016verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flexkalte.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ-City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iee.fraunhofer.de/en/business_units/analyses_and_consultancy_in_energy_economics/eq-city.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ-City ist ein Planungswerkzeug bzw. eine Software, die sich auf Energieversorgungskonzepte in Quartieren und Städten bezieht. Es kann genutzt werden, um transparente Investitionsentscheidungen zur Wärmeversorgung in städtischen Gebieten zu treffen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDI 2067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ-City.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvestScope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iaee2021online.org/download/contribution/presentation/1237/1237_presentation_20210601_205727.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investSCOPE optimiert Transformationspfade für die Dekarbonisierung von Erzeugungsportfolios unter Berücksichtigung finanzieller Kennziffern und bestimmt, in welche Technologie zu welchem Zeitpunkt und zu welchen Kosten investiert werden sollte, um einen wirtschaftlich optimalen Pfad zur Portfolioentwicklung zu erreichen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ier.uni-stuttgart.de/forschung/modelle/E2M2/; https://openenergy-platform.org/factsheets/models/95/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2M2 (European Electricity Market Model) ist ein grundlegendes Strommarktmodell, das mit dem Ziel entwickelt wurde, die Systemkosten auf dem europäischen Strommarkt zu minimieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Energiewirtschaft und rationelle Energieanwendung (IER), Universität Stuttgart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region/Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET4077G, 03EWR008verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.edsl.net/tas-engineering/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS ist eine hochspezialisierte Software für die thermische Optimierung von Gebäuden, die es ermöglicht, Einflüsse von Luftbewegungen, Sonnenstrahlung sowie Erwärmungs- und Kühlprozesse an Gebäuden zu simulieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Design Solutions Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Visualisierung, Optimierung, Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASEngineering.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sqlite.org/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite ist eine konfigurationsfreie, in sich geschlossene, eigenständige, transaktionsbezogene Datenbank-Engine, die in eine Anwendung eingebettet werden kann.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLite Consortium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenzierung: https://www.sqlite.org/copyright.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlite.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTIGRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ise.fraunhofer.de/de/geschaeftsfelder/leistungselektronik-netze-und-intelligente-systeme/energiesystemanalyse/energiesystemmodelle-am-fraunhofer-ise/entigris.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTIGRIS ist ein Strommarktmodell zur Analyse von Energiesystemen aus einer ökonomischen Perspektive. Es berücksichtigt verschiedene Faktoren, darunter Akteurskonstellationen und wirtschaftliche Indikatoren, um Einblicke in die Entwicklung von Energiesystemen zu geben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer Institute for Solar Energy Systems ISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Algebraic Modeling System (GAMS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EI1014A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2Calc4Quartier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.b-tu.de/fg-energiewirtschaft/projekte/laufende-projekte/co2calc4quartier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2Calc4Quartier ist ein Tool, das für die Bewertung von Fernwärmekonzepten mit besonderem Fokus auf CO2-Emissionen entwickelt wurde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachgebiet Energiewirtschaft, Brandenburgische Technische Universität Cottbus-Senftenberg; r2b energy consulting GmbH; BTB Blockheizkraftwerks-, Träger- und Betreibergesellschaft mbH Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch, ökologische</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3040verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voraussichtlich 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyMap Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.energymap.berlin/; https://www.lup-umwelt.de/energymap-berlin/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyMap Berlin ist eine Online-Plattform zur Erstellung eines gebäudespezifischen digitalen Wärmekatasters für den Gebäudebestand des Landes Berlin. Das gebäudescharfe Wärmekataster ist ein Werkzeug der kommunalen Wärmeplanung. Es erfasst alle beheizten Gebäude in den einzelnen Kommunen des Landkreises und beinhaltet zu jedem Gebäude Informationen zu Nutzung, Baustruktur und Wärmebedarf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2online gemeinnützige Beratungsgesellschaft mbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3051verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energymapberlin.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetricX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fernwaerme-digital.de/metricx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetricX ist eine software, die weder von der Plattform noch vom System abhängt und dazu dient, umfangreiche technische Betriebsdaten aus Fernwärmesystemen mit hoher zeitlicher Genauigkeit zu erfassen, zu verarbeiten und zu analysieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für nachhaltige Energieversorgung GmbH; Technische Hochschule Rosenheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring, Optimierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technisch, betrieblich,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quartier/Neze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3033C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metricx.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIVT Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ims.tu-darmstadt.de/forschung_ims/virtuelle_simulation_und_reale_erprobung/swivt_controller_/index.de.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der SWIVT-Controller ist ein umfassendes Werkzeug, das in den SWIVT-Projekten zur Optimierung der Auslegung und des Betriebs des Energiesystems des SWIFT-Quartiers eingesetzt wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Mechatronische Systeme im Maschinenbau, Technische Universität Darmstadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1545verbund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETA+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etaplus.energy/; https://www.eta-plus.com/#!/startpage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETA+ ist eine cloudbasierte Plattform, die Gebäudeeigentümer*innen und -manager*innen hilft, die Energieeffizienz ihrer Immobilien zu steigern. Dies wird durch die Erstellung von digitalen Abbildern (Digital Twins) jedes Gebäudes erreicht, welche alle Anlagen und Geräte umfassen. ETA+ unterstützt Nutzende dabei, Energieverbrauch zu senken und dadurch Kosten sowie klimaschädliche Emissionen zu reduzieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETA PLUS GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation, Optimierung, Monitoring, Visualisierung, Planung,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eta.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">licence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1636']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3013']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EGB0021']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1562A', '03ET1562B', '03EN1050A', '03EN1050B', '03EN1050C', '03EN3026C']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1612']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3018A', '03EGB0021']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatiker, Software-Entwickler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1495']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1632','03ET1472']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1632']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1603']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1315', '03EN1074A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1605']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1632', '03EN3026C']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN6003','03ET1299', '03EN6023A', '03EN3053A', '03EN3026C']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN1005A', '03SBE0004', '03ET1156', '03ET1605', '0325862', '03ET1552A', '03EN6004']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EGB0016A','03EGB0016B','03EGB0016C','03ET1472']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1632', '03SBE0006A', '03EN3037verbund', '03EWR020E', '03EN3026C', '03EN1074A', '03SBE115verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EGB0028']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1632', '03EN3026C', '03EWR020E', '03EWR010verbund', '03EN3057verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN6003']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3022']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1605', '03ET1641', '03EN3018A', '03EN6004','03ET1299']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1634D', '03ET1632', '03ET1603', '03SBE0006A', '03EWR010verbund', '03EWB003verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EGB0023']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['0325862', '03EN3020verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EGB0016A','03EGB0016B','03EGB0016C']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1603', '03EN3026C', '03EWR020E']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3011', '03EWB001verbund', '03EN1074A', '03EN3054A', '03SBE115verbund', '03EN3053A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3017', '03ET1595', '03ET1522', '03EN1038', '03ET1612', '03ET1641', '03EN6003', '03EN3026C', '03SBE0006A', '03EWR010verbund', '03EN3054A', '03EN1024A', '03EN1074A', '03EWB003verbund', '03EN3053A', '03SBE115verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3011', '03EWR020E', '03EWR010verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1612', '03EN1074A', '03EN3037verbund', '03ENM0033', '03SBE115verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EGB0016A','03EGB0016B','03EGB0016C', '03ET1603']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3018A','03ET1299']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN 13480; EN 13941; AGFW-Arbeitsblatt FW 401; ASME und AD-S2; ASME und AD2000-S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN1038']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1446', '03ET1647']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN 18599 GEG; DIN 18599 EnEV; DIN4108/4701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN6003', '03EN3026C', '03EN1024A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1605', '03ET1641', '03EN1025', '03ET1636', '03EN3018A', '03ET1552A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1446', '03ET1647', '03EN6004']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN 4108-2; DIN EN ISO 13791; DIN EN ISO 13792; VDI 6020; ASHRAE 140; EN 1502; ASHRAE 160; DIN EN ISO 10211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN1011']</t>
+  </si>
+  <si>
     <t xml:space="preserve">highcharts_logo</t>
   </si>
   <si>
-    <t xml:space="preserve">dynOptEn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iosb.fraunhofer.de/de/projekte-produkte/dynopt-en.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DynOpt-En ist ein dynamisches Optimierungsmodul für die angebots- und bedarfsgerechte Anbindung von Energiequellen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Optronik, Systemtechnik und Bildauswertung IOSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Monitoring, Optimierung, Planung, Steuerung, Regelung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingenieur:innen, Endnutzer:innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Webinterface wurde in der Literatur dargestellt, aber bei unserer Aktualisierung (November 2023) sind auf der Projektwebseite weder ein Download noch weitere Informationen über das Tool verfügbar. Kommerzielle Umsetzung geplant laut Projektwebweite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ETS001</t>
+    <t xml:space="preserve">['03ETS001']</t>
   </si>
   <si>
     <t xml:space="preserve">dynopt_logo</t>
   </si>
   <si>
-    <t xml:space="preserve">Windheizung 2.0 Planungstool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ibp.fraunhofer.de/de/projekte-referenzen/windheizung-2-0.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windheizung 2.0 Planungstool ist eine Software zur Planung und Optimierung von Windheizung 2.0 Gebäuden, die überschüssige Windenergie zum Heizen nutzen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Bauphysik IBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN6013A, 03ET1612A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandaspipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pandapipes.org/; https://github.com/e2nIEE/pandapipes/tree/develop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandapipes ist ein einfach zu bedienendes Netzberechnungsprogramm, das auf die Automatisierung der Analyse von Fernwärme- und Gassystemen ausgerichtet ist. Es nutzt die Datenanalysebibliothek pandas und ist auch eng mit dem Stromnetzberechnungsprogramm pandapower verwandt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE; Fachgebiet Energiemanagement und Betrieb elektrischer Netze, Universität Kassel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eine Python-Bibliothek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartier/Netze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Klausel-BSD-Lizenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenz: https://pandapipes.readthedocs.io/en/latest/about/license.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandaspipes.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therakles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bauklimatik-dresden.de/therakles/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Simulationsprogramm THERAKLES berechnet das dynamische thermische oder hygrothermische Verhalten von Räumen und Gebäuden. Es ist ein Berechnungswerkzeug für planende Ingenieure und Architekten im Bereich der Bauphysik, des Bauklimas und der technischen Gebäudeausrüstung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Andreas Nicolai, Dr.-Ing. Peggy Freudenberg und Dipl.-Ing. Heiko Fechner von Bauklimatik Dresden Software GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THERAKLES ist als kostenfreie und kommerzielle Professional-Version verfügbar. Die freie Version ist hinsichtlich der Verwendung in kommerziellen Projekten nicht eingeschränkt. Details siehe https://www.bauklimatik-dresden.de/therakles/bestellen.php?aLa=de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1215C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN 4108-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therakles.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openFOAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openfoam.com/; https://openfoam.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenFOAM (Open Field Operation And Manipulation) ist eine C++-Toolbox für die Entwicklung kundenspezifischer numerischer Solver und Pre-/Post-Processing-Hilfsprogramme für die Lösung von Problemen der Kontinuumsmechanik, vor allem der numerischen Strömungsmechanik (CFD).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenCFD Ltd/ESI Group; OpenFOAM Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eine C++-Toolbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code_saturne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1230B, 03ET1363A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openFOAM.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MasterSim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bauklimatik-dresden.de/mastersim/index.php?aLa=de; https://github.com/ghorwin/MasterSim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MasterSim ist ein Co-Simulations-Masterprogramm, welches die Mock-Up-Interface (FMI)-Co-Simulation unterstützt. MasterSim verbindet verschiedene Simulationsmodelle und tauscht Daten zwischen Simulation-Slaves zur Laufzeit aus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Andreas Nicolai von Bauklimatik Dresden Software GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++; C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MasterSim.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTPROC 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bauklimatik-dresden.de/postproc/index.php?aLa=de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostProc 2 ist eine Software für die Analyse und Nachbearbeitung von zeitabhängigen Daten, die z.B. in dynamischen Simulationsprogrammen oder aus Messdaten erzeugt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Andreas Nicolai und Dipl.-Ing. Heiko Fechner von Bauklimatik Dresden Software GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring , Visualisierung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baufachleute, Ingenieur:innen, Informatiker:innen/Software-Entwickler:innen, Endnutzer:innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTPROC 2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Template for Residential Energy Supply Systems (MTRESS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/mtress/mtress; https://elib.dlr.de/142201/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Template for Residential Energy Supply Systems (MTRESS) ist ein generisches Modell für oemof.solph, das eine Vielzahl von möglichen Technologiekombinationen für Energieversorgungssysteme bietet. Es ist darauf ausgerichtet, die Energieflüsse zwischen allen Komponenten innerhalb des Systems zu berechnen und Regelungsstrategien zu optimieren, die feste Bedarfszeitreihen für Strom, Wärme und Warmwasser unter Verwendung einer beliebigen Kombination der implementierten Versorgungstechnologien erfüllen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsches Zentrum für Luft- und Raumfahrt e.V. (DLR); KEHAG Energiehandel GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oemof.solph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technisch, betrieblich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTRESS 3.0 befindet sich in der Entwicklung und fügt die H2-Infrastruktur hinzu. Eventuell werden KPI und ein Pareto-Optimierer hinzugefügt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oemof.solph; PyGMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03SBE111U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESMod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/RWTH-EBC/BESMod; https://2022.american.conference.modelica.org/documents/01_papers/02_full/1_Wullhorst.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESMod ist eine quelloffene Modelica-Bibliothek, die einen modularen und benutzerfreundlichen Ansatz für bereichsübergreifende Simulationen von Energiesystemen in Gebäuden bietet und Bereiche wie Hydraulik, Lüftung, Elektrik, Steuerung und Gebäudehülle abdeckt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lehrstuhl für Gebäude- und Raumklimatechnik, RWTH Aachen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eine Modelica-Bibliothek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelica Standard Library (MSL); IBPSA; AixLib; Buildings; BuildingSystems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">überarbeitete 3-Klausel-BSD-Lizenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenz: https://github.com/RWTH-EBC/BESMod/blob/main/LICENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESMOD ist eine Modulbibliothek mit standardisierten Modulen, vereinfachter abstrahierter Parametrisierung, die teilweise auf Richtlinien und Normen basiert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBPSA; AixLib; Buildings; IDEAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1495A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN EN 15450, DIN EN 12831, DIN EN 16147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESMod.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSA 2.0 tool-chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/IWUGERMANY/VSA-2.0---Tool-Chain/blob/main/20210211_VSA_2_0_Dokumentation_und_Anleitung.pdf; https://github.com/IWUGERMANY/VSA-2.0---Tool-Chain; https://www.iwu.de/1/research/energie/vsa-20/; https://datanwg.de/downloads/tools/vsa-20/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSA 2.0 ist ein Werkzeug zur Erfassung und Auswertung von Daten zur Energiebilanz vieler Nichtwohngebäude. Es verfolgt als wichtiges Ziel die wissenschaftliche Analyse der Korrelation zwischen einfachen Bedarfsberechnungen mit Verbrauchsmessungen. Die Toolbox VSA 2.0 beinhaltet (1) Datenerfassungstool VSA 2.0 (gefördert von der KfW Bankengruppe), (2) TEK-Tool 9.24 mit Vorlage zur Erzeugung von Gebäude-Kurzberichten, (3) DB Tiefenerhebung (Datenmanagement für Gebäudebestände).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwaltung, Forschung/Lehre, Dienstleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonstiges </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Toolchain ist in verschiedene Excel-Dateien integriert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel VBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open-source, freeware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creative Commons Attribution 4.0 International Public License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenz: https://github.com/IWUGERMANY/VSA-2.0---Tool-Chain/blob/main/LICENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informationen aus der Anleitung:  Systemvoraussetzungen (1) Windows Betriebssystem (Windows 7 oder neuer) (2) Installierte Microsoft Office Desktop Version (2010 oder neuer). Damit VSA 2.0 funktioniert müssen Makros in Word und Excel zugelassen werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1315A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN V 18599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x3dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.x3dom.org/; https://github.com/x3dom/x3dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X3DOM ist ein quelloffenes JavaScript-Framework zur Erstellung deklarativer 3D-Szenen in Webseiten. Kurz gesagt bedeutet das deklarative 3D-Konzept, dass man eine interaktive 3D-Szene mit Hilfe einer strukturierten, textuellen Darstellung erstellen und anzeigen kann, anstatt Code zu schreiben - und zwar ohne ein Plugin in den Browsern. Im Fall von X3DOM ist diese textuelle Darstellung Teil eines HTML-Dokuments, das eine Webseite darstellt. Auf diese Weise wird der 3D-Inhalt zu einem Bürger erster Klasse innerhalb der Webseite, genau wie Text, Links, Bilder oder Filme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Graphische Datenverarbeitung IGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring, Visualisierung, Planung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML; JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dual lizenziert unter der MIT- und GPL-Lizenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3037verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x3dom.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ultralytics YOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.ultralytics.com/; https://github.com/ultralytics/ultralytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Framework zum Erstellen neuralen Netze zur Objekterkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ultralytics Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring, Optimierung, Planung, Sontiges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PyTorch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kostenpflichtig, open-source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGPL-3.0; Enterprise-Lizenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN1024A|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yolo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ehdo.eonerc.rwth-aachen.de/; https://github.com/RWTH-EBC/EHDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHDO (Energy hub design optimization) ist ein Webtool zur Unterstützung des Planungsprozesses von komplexen Energieversorgungssystemen. EHDO unterstützt die Planung zukünftiger Energieversorgungssysteme und die Abschätzung des Potenzials von erneuerbaren Energien und zukünftigen Energieträgern wie Wasserstoff. Eine breite Palette innovativer Technologien wie Brennstoffzellen, Elektrolyseure, Wasserstoffspeicher, Photovoltaik- und Windkraftanlagen sowie Biomasse- und Waste-to-Energy-Technologien können in dem Tool berücksichtigt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technisch, betrieblich, ökologische</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHDO.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEASER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ebc-tools.eonerc.rwth-aachen.de/teaser; https://github.com/RWTH-EBC/TEASER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEASER (Tool for Energy Analysis and Simulation for Efficient Retrofit) ist ein offenes Werkzeug für die städtische Energiemodellierung des vorhandenen Gebäudebestands. TEASER bietet eine benutzerfreundliche Schnittstelle für verschiedene Datenquellen (z. B. CityGML, SQL, ...) sowie die Möglichkeit zur Datenanreicherung, falls erforderlich. Darüber hinaus ermöglicht TEASER den Export von gebrauchsfertigen Modelica-Simulationsmodellen für alle Bibliotheken, die die Modelica IBPSA-Bibliothek unterstützen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AixLib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1352A, 03ET1405A, 03ET1177A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN 4108, DIN 277, DIN 12524, DIN V 18599, DINV185993, DIN EN 15242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teaser.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uesgraphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ebc-tools.eonerc.rwth-aachen.de/en/uesgraphs; https://github.com/RWTH-EBC/uesgraphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uesgraphs ist eine Python-Bibliothek zur Beschreibung städtischer Energiesysteme und zur Verwaltung ihrer Daten in einer Python-Graphenstruktur. Die Graph-Klasse in networkx wurde erweitert, um Gebäude und Energienetze im Graphen darzustellen. uesgraphs kann als Grundlage für die Analyse von Energienetzstrukturen, die Bewertung von Fernwärmesystemen oder die Erstellung von Simulationsmodellen verwendet werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommandozeile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">networkx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1352A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uesgraphs.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Energy Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openenergy-platform.org/; https://github.com/OpenEnergyPlatform/oeplatform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Open Energy Platform (OEP) ist ein kollaboratives, versioniertes Datensatz-Repository für die Speicherung offener Energiesystem-Modelldatensätze. Sie erleichtert die gemeinsame Nutzung, Analyse und Visualisierung von Energiedaten, um Forschung, Planung und Entscheidungsfindung im Energiesektor zu unterstützen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Energy Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Monitoring, Planung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python, Javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGPL-3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Quellcode der Open Energy Platform ist auf GitHub veröffentlicht. Das Repository ist unter der GNU Affero General Public License v3.0 (AGPL-3.0) lizenziert.</t>
+    <t xml:space="preserve">['03EN6013A', '03ET1612A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1215C']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1230B', '03ET1363A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03SBE111U']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1495A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN EN 15450; DIN EN 12831; DIN EN 16147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-source; freeware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1315A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN3037verbund']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03EN1024A'|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1352A', '03ET1405A', '03ET1177A']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIN 4108; DIN 277; DIN 12524; DIN V 18599; DINV185993; DIN EN 15242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['03ET1352A']</t>
   </si>
   <si>
     <t xml:space="preserve">penEnergy.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO-HANDlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://innosued.de/energie/geothermie-software-2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO-HANDlight ist eine kostenlose Software, die die Planung von Erdwärmesonden unterstützt. Das Programm ermöglicht die Berechnung einzelner Erdwärmesonden bis hin zu Sondenfeldern in verschiedenen Anordnungen. Dabei werden relevante Auslegungsgrenzen überprüft, und Parameter wie Fluidtemperaturen sowie Temperaturreaktionen in der Sonde und im Erdreich können präzise bestimmt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochschule Biberach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Planung, Optimierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://react.dev/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React ist eine JavaScript-Bibliothek für die Entwicklung von Benutzeroberflächen. Sie ermöglicht die effiziente Erstellung von ansprechenden und interaktiven UI-Komponenten. React kann für die Entwicklung von einseitigen, mobilen oder Server-gerenderten Anwendungen verwendet werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta Open Source; React Community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript </t>
-  </si>
-  <si>
-    <t xml:space="preserve">React Router, Redux, Material-UI, Styled Components, Next.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB wird hauptsächlich unter einer Open-Source-Lizenz vertrieben. Es bietet jedoch auch eine kommerzielle Version mit zusätzlichen Funktionen und Support an (Details siehe https://www.mongodb.com/pricing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vue.js, Angular, Svelte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN1059verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitLab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://about.gitlab.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitLab ist eine webbasierte Plattform für das DevOps-Lifecycle-Management. Sie bietet Funktionen für das Versionsmanagement von Quellcode, kontinuierliche Integration, kontinuierliche Bereitstellung, Container-Orchestrierung und mehr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitLab Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webbasierte Benutzeroberfläche, grafische Benutzeroberfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript, Go, Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rails, Sidekiq, Gitaly, Puma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digitale Anwedung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open-source, kostenpflichtig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitLab wird hauptsächlich unter einer Open-Source-Lizenz vertrieben. GitLab bietet jedoch auch eine kommerzielle Version mit zusätzlichen Funktionen und Support an (Details siehe https://about.gitlab.com/pricing/).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub, Bitbucket, Jenkins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitlab.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mongodb.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB ist eine dokumentenorientierte NoSQL-Datenbank, die flexibles, skalierbares und leistungsstarkes Datenmanagement ermöglicht. Sie speichert Daten im BSON-Format (Binary JSON) in sogenannten Collections.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grafische Benutzeroberfläche, Kommandozeile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB Compass (grafische Benutzeroberfläche)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB Server Side Public License (SSPL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL, PostgreSQL, CouchDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mongo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfcOpenShell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ifcopenshell.org/; https://github.com/IfcOpenShell/IfcOpenShell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfcOpenShell ist eine Open-Source-Softwarebibliothek, die in C++ und Python verfügbar ist und die Arbeit mit dem Industry Foundation Classes (IFC)-Dateiformat erleichtern soll. Das IFC-Dateiformat kann zur Beschreibung von Gebäude- und Konstruktionsdaten verwendet werden und wird üblicherweise für Building Information Modelling eingesetzt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfcOpenShell Community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Visualisierung, Planung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boost, OpenCascade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGPL-3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifc.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartiersgenerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ebc.eonerc.rwth-aachen.de/cms/E-ON-ERC-EBC/Forschung/Forschungsprojekte2/Projekte-Urbane-Energiesysteme/~qgsqr/BF-Quartier2020/; https://github.com/RWTH-EBC/districtgenerator/tree/master?tab=readme-ov-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Quartiersgenerator ist ein Webtool zum Vergleich von Versorgungskonzepten für Quartiere. Es enthält einen Lastprofilgenerator für indivisualisiebaren Gebäudebstand in Quartier, eine Auslegungsoptimierung zentraler Versorgungsysteme, Betriebsoptimierung verschiedener Technologieszenarien und Bewertung anhand KPIs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwaltung, Forschung/Lehre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommandozeile; webbasierte Benutzeroberfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabula, richardsonpy, TEASER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technisch, ökologisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EWB003B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022 /2024 (geplannt als ein Webtool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CasADi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.casadi.org/; https://github.com/casadi/casadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CasADi ist ein Open-Source-Softwaretool für numerische Optimierung im Allgemeinen und optimale Steuerung (d.h. Optimierung mit Differentialgleichungen) im Besonderen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joris Gillis; Joel Andersson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung, Planung, Steuerung, Regelung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++, C, Python, SWIG, MATLAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open-source, freeware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ETS005verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casadi.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimescaleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.timescale.com/; https://github.com/timescale/timescaledb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimescaleDB ist eine Open-Source-SQL-Datenbank für Zeitreihen, die PostgresSQL erweitert und für schnelle Sammlungen und komplexe Abfragen optimiert ist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timescale Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details siehe https://github.com/timescale/timescaledb/blob/main/LICENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timescale.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenStudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://openstudio.net/; https://github.com/NREL/OpenStudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenStudio ist eine plattformübergreifende Sammlung von Softwarewerkzeugen zur Unterstützung der Energiemodellierung ganzer Gebäude mit EnergyPlus und der erweiterten Tageslichtanalyse mit Radiance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Renewable Energy Laboratory (USA) u. US Department of Energy; OpenStudio Coalition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baufachleute, Ingenieur:innen, Ingenieur:innen, Informatiker:innen/Software-Entwickler:innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grafische Benutzeroberfläche; Kommandozeile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenStudio SketchUp Plug-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++, Ruby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenStudio License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details siehe https://openstudio.net/license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openstudio.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://julialang.org/; https://github.com/JuliaLang/julia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia ist eine hochentwickelte, leistungsstarke dynamische Programmiersprache für technische Berechnungen. Sie ist für numerische und wissenschaftliche Berechnungen konzipiert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia Computing Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python, R, Matlab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">julia.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/QuaSi-Software/resie; https://quasi-software.github.io/Website//static/231119_poster_14_pl_meeting.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resie (Rechenkern für die Simulation von Energiesystemen) ist ein Simulationswerkzeug zur Simulation und Optimierung verschiedener Energieversorgungssysteme für Stadtteile oder Einzelgebäude mit dem Fokus auf Betriebsstrategien, das bereits in frühen Planungsphasen eingesetzt werden kann.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siz energieplus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3053A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resie.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenSim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/QuaSi-Software/GenSim; https://www.mdpi.com/1996-1073/16/17/6115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenSim ist ein Werkzeug zur Simulation der Strom- und Wärmebedarfs von Gebäuden, mit einem Fokus auf den frühen Entwurfsphasen. Es kann hochauflösende zeitliche Daten verarbeiten und vereinfacht geometrische Modelle für effiziente Simulationen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maile Consulting; siz energieplus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby, VBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignBuilder, IDA ICE, TRNSYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03SBE115verbund, 03EN3053A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN V 18599-10, ASHRAE 90.1 2013, SIA 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gensim.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stable-baselines3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/DLR-RM/stable-baselines3 ; https://stable-baselines3.readthedocs.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable Baselines3 ist eine zuverlässige, Open-Source Python-Bibliothek für Deep Reinforcement Learning (RL)-Algorithmen. Sie bietet präzise Implementierungen, die durch umfangreiche automatisierte Tests und eine einheitliche Schnittstelle unterstützt werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Robotik und Mechatronik, Deutsches Zentrum für Luft- und Raumfahrt (DLR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stable-baselines3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AixWeather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/RWTH-EBC/AixWeather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AixWeather ist ein Werkzeug zur Erzeugung von Wetterdaten, das für die Simulation von Energiesystemen in Gebäuden entwickelt wurde. Es wird zum Abrufen, Umwandeln und Exportieren von Wetterdaten für Forschung und Simulationen im Zusammenhang mit Gebäudeenergiesystemen verwendet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AixWeather Web App (https://github.com/RWTH-EBC/AixWeather-WebApp) ist eine Webanwendung zur nahtlosen Integration der Funktionen des AixWeather-Repositorys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenz: https://github.com/RWTH-EBC/AixWeather/blob/main/LICENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AixWeather_Logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHEtool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/wouterpeere/GHEtool; https://ghetool.eu/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHEtool ist ein Werkzeug für Bohrfeldberechnungen. GHEtools bietet Zugang zu der Technologie, die notwendig ist, um die geothermische Entwicklung zu beschleunigen und die Machbarkeit geothermischer Lösungen zu erleichtern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Thermal Systems Simulation, KU Leuven; Boydens Engineering; FH Aachen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Pro-Version ist verfügbar und die Preise sind unter https://ghetool.eu/pricing/ aufgeführt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHEtool.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIR 3S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.3sconsult.de/software/sir-3s/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIR 3S ist ein Softwaretool, das für die Berechnung, Simulation, Analyse und Optimierung von Strömungsvorgängen in Gas-, Wasser- und Wärmeversorgungsnetzen sowie anderen Rohrleitungssystemen entwickelt wurde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3S Consult GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartier/Netze, Region/Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3068verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sir3s.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delphin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bauklimatik-dresden.de/delphin/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELPHIN ist eine Simulationssoftware für gekoppelten Wärme-, Feuchte-, Luft- und Salztransport in porösen Baustoffen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Bauklimatik, TU Dresden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Monitoring, Optimierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delphin ist kostenlos für Studierende. Akademische Lizenzen für Lehre und Forschung sind erhältlich. Details siehe https://bauklimatik-dresden.de/delphin/bestellen.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WUFI, COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0329663N, 03EN3057verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delphin.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimVicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sim-vicus.de/ ; https://github.com/ghorwin/SIM-VICUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIM-VICUS ist eine 3D-Modellierungsumgebung für Gebäude- und Stadtteilnetze und eine innovative dynamische Simulationsmaschine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++, C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL-3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA ICE, Modelica, EnergyPlus, TRNSYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3057verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simvicus.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polysun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.velasolaris.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polysun ist eine Software, mit der sich solarthermische, photovoltaische und geothermische Anlagen effektiv simulieren lassen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela Solaris AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polysun.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolidWorks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.solidworks.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolidWorks entwickelt und vermarktet Software für computergestütztes Design, computergestütztes Engineering, 3D-CAD-Design und Zusammenarbeit, Analyse und Produktdatenmanagement. SolidWorks wird zur Erstellung von parametrischen Modellen, Baugruppen und technischen Zeichnungen verwendet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dassault Systèmes SolidWorks Corp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenzierung finden Sie hier: https://www.solidworks.com/how-to-buy/solidworks-licensing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidworks.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyConnect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iee.fraunhofer.de/de/geschaeftsfelder/digitales-portfoliomanagement/energyconnect.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyConnect ist ein modernes Echtzeit-Leitsystem, das verschiedene dezentrale Energieanlagen zusammenfasst, steuert und überwacht. Es kann als das virtuelle Kraftwerk beschrieben werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualisierung, Monitoring, Steuerung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPC XML-DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3067verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEC104, Modbus, profibus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyConnect.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlexKälte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.umsicht.fraunhofer.de/de/projekte/kaelteversorgung-flexibilisieren.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexkälte ist eine Web-App, die entwickelt wurde, um die Flexibilität von Kälteversorgungssystemen zu erhöhen, insbesondere im Zusammenhang mit dem Ausgleich elektrischer Energie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Umwelt-, Sicherheits- und Energietechnik UMSICHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ETW016verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flexkalte.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQ-City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iee.fraunhofer.de/en/business_units/analyses_and_consultancy_in_energy_economics/eq-city.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQ-City ist ein Planungswerkzeug bzw. eine Software, die sich auf Energieversorgungskonzepte in Quartieren und Städten bezieht. Es kann genutzt werden, um transparente Investitionsentscheidungen zur Wärmeversorgung in städtischen Gebieten zu treffen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDI 2067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQ-City.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InvestScope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iaee2021online.org/download/contribution/presentation/1237/1237_presentation_20210601_205727.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">investSCOPE optimiert Transformationspfade für die Dekarbonisierung von Erzeugungsportfolios unter Berücksichtigung finanzieller Kennziffern und bestimmt, in welche Technologie zu welchem Zeitpunkt und zu welchen Kosten investiert werden sollte, um einen wirtschaftlich optimalen Pfad zur Portfolioentwicklung zu erreichen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ier.uni-stuttgart.de/forschung/modelle/E2M2/; https://openenergy-platform.org/factsheets/models/95/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2M2 (European Electricity Market Model) ist ein grundlegendes Strommarktmodell, das mit dem Ziel entwickelt wurde, die Systemkosten auf dem europäischen Strommarkt zu minimieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Energiewirtschaft und rationelle Energieanwendung (IER), Universität Stuttgart </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region/Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET4077G, 03EWR008verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAS Engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.edsl.net/tas-engineering/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAS ist eine hochspezialisierte Software für die thermische Optimierung von Gebäuden, die es ermöglicht, Einflüsse von Luftbewegungen, Sonnenstrahlung sowie Erwärmungs- und Kühlprozesse an Gebäuden zu simulieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Design Solutions Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Visualisierung, Optimierung, Planung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TASEngineering.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sqlite.org/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLite ist eine konfigurationsfreie, in sich geschlossene, eigenständige, transaktionsbezogene Datenbank-Engine, die in eine Anwendung eingebettet werden kann.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLite Consortium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenzierung: https://www.sqlite.org/copyright.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sqlite.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTIGRIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ise.fraunhofer.de/de/geschaeftsfelder/leistungselektronik-netze-und-intelligente-systeme/energiesystemanalyse/energiesystemmodelle-am-fraunhofer-ise/entigris.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENTIGRIS ist ein Strommarktmodell zur Analyse von Energiesystemen aus einer ökonomischen Perspektive. Es berücksichtigt verschiedene Faktoren, darunter Akteurskonstellationen und wirtschaftliche Indikatoren, um Einblicke in die Entwicklung von Energiesystemen zu geben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer Institute for Solar Energy Systems ISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Algebraic Modeling System (GAMS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EI1014A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2Calc4Quartier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.b-tu.de/fg-energiewirtschaft/projekte/laufende-projekte/co2calc4quartier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2Calc4Quartier ist ein Tool, das für die Bewertung von Fernwärmekonzepten mit besonderem Fokus auf CO2-Emissionen entwickelt wurde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachgebiet Energiewirtschaft, Brandenburgische Technische Universität Cottbus-Senftenberg; r2b energy consulting GmbH; BTB Blockheizkraftwerks-, Träger- und Betreibergesellschaft mbH Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technisch, ökologische</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3040verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voraussichtlich 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyMap Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.energymap.berlin/; https://www.lup-umwelt.de/energymap-berlin/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyMap Berlin ist eine Online-Plattform zur Erstellung eines gebäudespezifischen digitalen Wärmekatasters für den Gebäudebestand des Landes Berlin. Das gebäudescharfe Wärmekataster ist ein Werkzeug der kommunalen Wärmeplanung. Es erfasst alle beheizten Gebäude in den einzelnen Kommunen des Landkreises und beinhaltet zu jedem Gebäude Informationen zu Nutzung, Baustruktur und Wärmebedarf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2online gemeinnützige Beratungsgesellschaft mbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3051verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energymapberlin.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetricX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fernwaerme-digital.de/metricx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetricX ist eine software, die weder von der Plattform noch vom System abhängt und dazu dient, umfangreiche technische Betriebsdaten aus Fernwärmesystemen mit hoher zeitlicher Genauigkeit zu erfassen, zu verarbeiten und zu analysieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für nachhaltige Energieversorgung GmbH; Technische Hochschule Rosenheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring, Optimierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technisch, betrieblich,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quartier/Neze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3033C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metricx.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWIVT Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ims.tu-darmstadt.de/forschung_ims/virtuelle_simulation_und_reale_erprobung/swivt_controller_/index.de.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der SWIVT-Controller ist ein umfassendes Werkzeug, das in den SWIVT-Projekten zur Optimierung der Auslegung und des Betriebs des Energiesystems des SWIFT-Quartiers eingesetzt wird.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Mechatronische Systeme im Maschinenbau, Technische Universität Darmstadt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1545verbund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETA+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etaplus.energy/; https://www.eta-plus.com/#!/startpage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETA+ ist eine cloudbasierte Plattform, die Gebäudeeigentümer*innen und -manager*innen hilft, die Energieeffizienz ihrer Immobilien zu steigern. Dies wird durch die Erstellung von digitalen Abbildern (Digital Twins) jedes Gebäudes erreicht, welche alle Anlagen und Geräte umfassen. ETA+ unterstützt Nutzende dabei, Energieverbrauch zu senken und dadurch Kosten sowie klimaschädliche Emissionen zu reduzieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETA PLUS GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation, Optimierung, Monitoring, Visualisierung, Planung,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eta.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">licence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1636']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3013']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EGB0021']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1562A', '03ET1562B', '03EN1050A', '03EN1050B', '03EN1050C', '03EN3026C']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1612']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3018A', '03EGB0021']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatiker, Software-Entwickler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1495']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1632','03ET1472']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1632']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1603']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1315', '03EN1074A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1605']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1632', '03EN3026C']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN6003','03ET1299', '03EN6023A', '03EN3053A', '03EN3026C']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN1005A', '03SBE0004', '03ET1156', '03ET1605', '0325862', '03ET1552A', '03EN6004']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EGB0016A','03EGB0016B','03EGB0016C','03ET1472']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1632', '03SBE0006A', '03EN3037verbund', '03EWR020E', '03EN3026C', '03EN1074A', '03SBE115verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EGB0028']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1632', '03EN3026C', '03EWR020E', '03EWR010verbund', '03EN3057verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN6003']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3022']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1605', '03ET1641', '03EN3018A', '03EN6004','03ET1299']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1634D', '03ET1632', '03ET1603', '03SBE0006A', '03EWR010verbund', '03EWB003verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EGB0023']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['0325862', '03EN3020verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EGB0016A','03EGB0016B','03EGB0016C']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1603', '03EN3026C', '03EWR020E']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3011', '03EWB001verbund', '03EN1074A', '03EN3054A', '03SBE115verbund', '03EN3053A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3017', '03ET1595', '03ET1522', '03EN1038', '03ET1612', '03ET1641', '03EN6003', '03EN3026C', '03SBE0006A', '03EWR010verbund', '03EN3054A', '03EN1024A', '03EN1074A', '03EWB003verbund', '03EN3053A', '03SBE115verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3011', '03EWR020E', '03EWR010verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1612', '03EN1074A', '03EN3037verbund', '03ENM0033', '03SBE115verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EGB0016A','03EGB0016B','03EGB0016C', '03ET1603']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3018A','03ET1299']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN 13480; EN 13941; AGFW-Arbeitsblatt FW 401; ASME und AD-S2; ASME und AD2000-S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN1038']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1446', '03ET1647']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN 18599 GEG; DIN 18599 EnEV; DIN4108/4701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN6003', '03EN3026C', '03EN1024A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1605', '03ET1641', '03EN1025', '03ET1636', '03EN3018A', '03ET1552A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1446', '03ET1647', '03EN6004']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN 4108-2; DIN EN ISO 13791; DIN EN ISO 13792; VDI 6020; ASHRAE 140; EN 1502; ASHRAE 160; DIN EN ISO 10211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN1011']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ETS001']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN6013A', '03ET1612A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1215C']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1230B', '03ET1363A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03SBE111U']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1495A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN EN 15450; DIN EN 12831; DIN EN 16147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open-source; freeware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1315A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN3037verbund']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03EN1024A'|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1352A', '03ET1405A', '03ET1177A']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIN 4108; DIN 277; DIN 12524; DIN V 18599; DINV185993; DIN EN 15242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['03ET1352A']</t>
   </si>
   <si>
     <t xml:space="preserve">['03EN1059verbund']</t>
@@ -3793,6 +3802,9 @@
   </si>
   <si>
     <t xml:space="preserve">EWBBF2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidworks.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">EWBBF2024</t>
@@ -4786,14 +4798,7 @@
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
     <cellStyle name="Excel Built-in Bad" xfId="21"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4806,125 +4811,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF272C2E"/>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDAE3F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF202124"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF1F1F1F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF374151"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0F0F0F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF555555"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9C0006"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF333333"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D18E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE7E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4993,115 +4879,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_2022_02_22_EWB_Tools_Uebersicht" displayName="_2022_02_22_EWB_Tools_Uebersicht" ref="A:AD" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A:AD"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_2022_02_22_EWB_Tools_Uebersicht" displayName="_2022_02_22_EWB_Tools_Uebersicht" ref="A1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1"/>
+  <tableColumns count="1">
     <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="resources"/>
-    <tableColumn id="3" name="shortDescription"/>
-    <tableColumn id="4" name="applicationArea"/>
-    <tableColumn id="5" name="provider"/>
-    <tableColumn id="6" name="usage"/>
-    <tableColumn id="7" name="lifeCyclePhase"/>
-    <tableColumn id="8" name="targetGroup"/>
-    <tableColumn id="9" name="userInterface"/>
-    <tableColumn id="10" name="userInterfaceNotes"/>
-    <tableColumn id="11" name="programmingLanguages"/>
-    <tableColumn id="12" name="frameworksLibraries"/>
-    <tableColumn id="13" name="databaseSystem"/>
-    <tableColumn id="14" name="classification"/>
-    <tableColumn id="15" name="focus"/>
-    <tableColumn id="16" name="scale"/>
-    <tableColumn id="17" name="lastUpdate"/>
-    <tableColumn id="18" name="accessibility"/>
-    <tableColumn id="19" name="licence"/>
-    <tableColumn id="20" name="licenseNotes"/>
-    <tableColumn id="21" name="furtherInformation"/>
-    <tableColumn id="22" name="alternatives"/>
-    <tableColumn id="23" name="specificApplication"/>
-    <tableColumn id="24" name="released"/>
-    <tableColumn id="25" name="releasedPlanned"/>
-    <tableColumn id="26" name="yearOfRelease"/>
-    <tableColumn id="27" name="developmentState"/>
-    <tableColumn id="28" name="technicalStandardsNorms"/>
-    <tableColumn id="29" name="technicalStandardsProtocols"/>
-    <tableColumn id="30" name="image"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_2022_02_22_EWB_Tools_Uebersicht3" displayName="_2022_02_22_EWB_Tools_Uebersicht3" ref="A:AD" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A:AD"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_2022_02_22_EWB_Tools_Uebersicht3" displayName="_2022_02_22_EWB_Tools_Uebersicht3" ref="A1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1"/>
+  <tableColumns count="1">
     <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="resources"/>
-    <tableColumn id="3" name="shortDescription"/>
-    <tableColumn id="4" name="applicationArea"/>
-    <tableColumn id="5" name="provider"/>
-    <tableColumn id="6" name="usage"/>
-    <tableColumn id="7" name="lifeCyclePhase"/>
-    <tableColumn id="8" name="targetGroup"/>
-    <tableColumn id="9" name="userInterface"/>
-    <tableColumn id="10" name="userInterfaceNotes"/>
-    <tableColumn id="11" name="programmingLanguages"/>
-    <tableColumn id="12" name="frameworksLibraries"/>
-    <tableColumn id="13" name="databaseSystem"/>
-    <tableColumn id="14" name="classification"/>
-    <tableColumn id="15" name="focus"/>
-    <tableColumn id="16" name="scale"/>
-    <tableColumn id="17" name="lastUpdate"/>
-    <tableColumn id="18" name="accessibility"/>
-    <tableColumn id="19" name="licence"/>
-    <tableColumn id="20" name="licenseNotes"/>
-    <tableColumn id="21" name="furtherInformation"/>
-    <tableColumn id="22" name="alternatives"/>
-    <tableColumn id="23" name="specificApplication"/>
-    <tableColumn id="24" name="released"/>
-    <tableColumn id="25" name="releasedPlanned"/>
-    <tableColumn id="26" name="yearOfRelease"/>
-    <tableColumn id="27" name="developmentState"/>
-    <tableColumn id="28" name="technicalStandardsNorms"/>
-    <tableColumn id="29" name="technicalStandardsProtocols"/>
-    <tableColumn id="30" name="image"/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="_2022_02_22_EWB_Tools_Uebersicht34" displayName="_2022_02_22_EWB_Tools_Uebersicht34" ref="A:AD" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A:AD"/>
-  <tableColumns count="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="_2022_02_22_EWB_Tools_Uebersicht34" displayName="_2022_02_22_EWB_Tools_Uebersicht34" ref="A1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1"/>
+  <tableColumns count="1">
     <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="resources"/>
-    <tableColumn id="3" name="shortDescription"/>
-    <tableColumn id="4" name="applicationArea"/>
-    <tableColumn id="5" name="provider"/>
-    <tableColumn id="6" name="usage"/>
-    <tableColumn id="7" name="lifeCyclePhase"/>
-    <tableColumn id="8" name="targetGroup"/>
-    <tableColumn id="9" name="userInterface"/>
-    <tableColumn id="10" name="userInterfaceNotes"/>
-    <tableColumn id="11" name="programmingLanguages"/>
-    <tableColumn id="12" name="frameworksLibraries"/>
-    <tableColumn id="13" name="databaseSystem"/>
-    <tableColumn id="14" name="classification"/>
-    <tableColumn id="15" name="focus"/>
-    <tableColumn id="16" name="scale"/>
-    <tableColumn id="17" name="lastUpdate"/>
-    <tableColumn id="18" name="accessibility"/>
-    <tableColumn id="19" name="license"/>
-    <tableColumn id="20" name="licenseNotes"/>
-    <tableColumn id="21" name="furtherInformation"/>
-    <tableColumn id="22" name="alternatives"/>
-    <tableColumn id="23" name="specificApplication"/>
-    <tableColumn id="24" name="released"/>
-    <tableColumn id="25" name="releasedPlanned"/>
-    <tableColumn id="26" name="yearOfRelease"/>
-    <tableColumn id="27" name="developmentState"/>
-    <tableColumn id="28" name="technicalStandardsNorms"/>
-    <tableColumn id="29" name="technicalStandardsProtocols"/>
-    <tableColumn id="30" name="image"/>
   </tableColumns>
 </table>
 </file>
@@ -5114,11 +4913,11 @@
   <dimension ref="A1:AE113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC71" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
-      <selection pane="bottomRight" activeCell="A66" activeCellId="0" sqref="A66"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+      <selection pane="bottomRight" activeCell="AD81" activeCellId="0" sqref="AD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12600,12 +12399,12 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C60:C62 G60:G63 I60:J60 R60:R62 I61 C63" type="textLength">
+      <formula1>1000</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A60:B63" type="textLength">
       <formula1>150</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C60:C62 G60:G63 I60:J60 R60:R62 I61 C63" type="textLength">
-      <formula1>1000</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -16865,7 +16664,7 @@
       <c r="AB65" s="14"/>
       <c r="AC65" s="14"/>
       <c r="AD65" s="14" t="s">
-        <v>570</v>
+        <v>994</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16920,7 +16719,7 @@
       </c>
       <c r="V66" s="14"/>
       <c r="W66" s="56" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="X66" s="58" t="s">
         <v>43</v>
@@ -16933,7 +16732,7 @@
       <c r="AB66" s="14"/>
       <c r="AC66" s="14"/>
       <c r="AD66" s="14" t="s">
-        <v>579</v>
+        <v>996</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16988,7 +16787,7 @@
       <c r="U67" s="14"/>
       <c r="V67" s="14"/>
       <c r="W67" s="56" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="X67" s="14" t="n">
         <v>1</v>
@@ -17164,7 +16963,7 @@
       <c r="U70" s="31"/>
       <c r="V70" s="31"/>
       <c r="W70" s="31" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="X70" s="31" t="n">
         <v>1</v>
@@ -17242,7 +17041,7 @@
         <v>611</v>
       </c>
       <c r="W71" s="31" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="X71" s="31" t="n">
         <v>1</v>
@@ -17318,7 +17117,7 @@
       <c r="U72" s="31"/>
       <c r="V72" s="31"/>
       <c r="W72" s="31" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="X72" s="31" t="n">
         <v>1</v>
@@ -17466,7 +17265,7 @@
         <v>636</v>
       </c>
       <c r="W74" s="31" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="X74" s="31" t="n">
         <v>1</v>
@@ -17548,7 +17347,7 @@
         <v>647</v>
       </c>
       <c r="W75" s="31" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="X75" s="31" t="n">
         <v>1</v>
@@ -17561,7 +17360,7 @@
         <v>5</v>
       </c>
       <c r="AB75" s="31" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AC75" s="14"/>
       <c r="AD75" s="31" t="s">
@@ -17617,7 +17416,7 @@
         <v>44894</v>
       </c>
       <c r="R76" s="31" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="S76" s="31" t="s">
         <v>659</v>
@@ -17630,7 +17429,7 @@
       </c>
       <c r="V76" s="14"/>
       <c r="W76" s="31" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="X76" s="31" t="n">
         <v>1</v>
@@ -17704,7 +17503,7 @@
       <c r="U77" s="14"/>
       <c r="V77" s="14"/>
       <c r="W77" s="31" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="X77" s="31" t="n">
         <v>1</v>
@@ -17780,7 +17579,7 @@
       <c r="U78" s="14"/>
       <c r="V78" s="14"/>
       <c r="W78" s="31" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="X78" s="31" t="n">
         <v>1</v>
@@ -17930,7 +17729,7 @@
       <c r="U80" s="14"/>
       <c r="V80" s="14"/>
       <c r="W80" s="62" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="X80" s="31" t="n">
         <v>1</v>
@@ -17943,7 +17742,7 @@
         <v>5</v>
       </c>
       <c r="AB80" s="31" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="AC80" s="14"/>
       <c r="AD80" s="31" t="s">
@@ -18010,7 +17809,7 @@
       <c r="U81" s="14"/>
       <c r="V81" s="14"/>
       <c r="W81" s="62" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="X81" s="31" t="n">
         <v>1</v>
@@ -18101,7 +17900,7 @@
       <c r="AB82" s="31"/>
       <c r="AC82" s="14"/>
       <c r="AD82" s="31" t="s">
-        <v>712</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18230,7 +18029,7 @@
         <v>725</v>
       </c>
       <c r="W84" s="62" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="X84" s="31" t="n">
         <v>1</v>
@@ -18312,7 +18111,7 @@
         <v>738</v>
       </c>
       <c r="W85" s="62" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="X85" s="31" t="n">
         <v>1</v>
@@ -18392,7 +18191,7 @@
         <v>747</v>
       </c>
       <c r="W86" s="62" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="X86" s="31" t="n">
         <v>1</v>
@@ -18468,7 +18267,7 @@
       <c r="U87" s="14"/>
       <c r="V87" s="14"/>
       <c r="W87" s="62" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="X87" s="31" t="n">
         <v>1</v>
@@ -18491,7 +18290,7 @@
         <v>757</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C88" s="65" t="s">
         <v>759</v>
@@ -18519,7 +18318,7 @@
         <v>107</v>
       </c>
       <c r="L88" s="31" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="M88" s="14"/>
       <c r="N88" s="31" t="s">
@@ -18544,7 +18343,7 @@
       <c r="U88" s="14"/>
       <c r="V88" s="14"/>
       <c r="W88" s="31" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="X88" s="31" t="n">
         <v>0</v>
@@ -18553,7 +18352,7 @@
         <v>1</v>
       </c>
       <c r="Z88" s="31" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="AA88" s="31" t="n">
         <v>3</v>
@@ -18618,7 +18417,7 @@
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
       <c r="W89" s="31" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="X89" s="31" t="n">
         <v>1</v>
@@ -18920,7 +18719,7 @@
       <c r="U93" s="14"/>
       <c r="V93" s="14"/>
       <c r="W93" s="31" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="X93" s="31" t="n">
         <v>1</v>
@@ -18994,7 +18793,7 @@
         <v>810</v>
       </c>
       <c r="W94" s="31" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="X94" s="31" t="n">
         <v>1</v>
@@ -19007,7 +18806,7 @@
         <v>5</v>
       </c>
       <c r="AB94" s="31" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="AC94" s="14"/>
       <c r="AD94" s="31" t="s">
@@ -19666,7 +19465,7 @@
         <v>111</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>1</v>
@@ -20154,7 +19953,7 @@
         <v>184</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>1</v>
@@ -20479,7 +20278,7 @@
         <v>223</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>1</v>
@@ -21014,7 +20813,7 @@
         <v>263</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="X29" s="0" t="n">
         <v>1</v>
@@ -21485,7 +21284,7 @@
         <v>345</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>1</v>
@@ -21609,7 +21408,7 @@
         <v>364</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>1</v>
@@ -21745,7 +21544,7 @@
         <v>184</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="W40" s="0" t="s">
         <v>960</v>
@@ -21958,7 +21757,7 @@
         <v>410</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="X43" s="0" t="n">
         <v>1</v>
@@ -22029,7 +21828,7 @@
         <v>418</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="X44" s="0" t="n">
         <v>1</v>
@@ -22103,7 +21902,7 @@
         <v>61</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="X45" s="0" t="n">
         <v>1</v>
@@ -23369,46 +23168,46 @@
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>252</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="G1" s="76" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="H2" s="77" t="s">
         <v>764</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>1</v>
@@ -23417,82 +23216,82 @@
         <v>378</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="77" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="M3" s="0" t="n">
         <f aca="false">COUNTA(A:A)</f>
         <v>14</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="H4" s="76" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>27</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>671</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="H6" s="76" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23500,64 +23299,64 @@
         <v>286</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="G7" s="77" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="H7" s="77" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="H8" s="76" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="H9" s="77" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>853</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23565,16 +23364,16 @@
         <v>356</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23582,58 +23381,58 @@
         <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="77" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="H15" s="77" t="s">
         <v>803</v>
@@ -23644,44 +23443,44 @@
         <v>175</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="G17" s="77" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="G18" s="77" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23689,13 +23488,13 @@
         <v>428</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="H19" s="76" t="s">
         <v>803</v>
@@ -23703,27 +23502,27 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="77" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>671</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="79" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="H21" s="77" t="s">
         <v>726</v>
@@ -23731,16 +23530,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="80" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23748,75 +23547,75 @@
         <v>107</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="77" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="G24" s="76" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="H24" s="76" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="77" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="77" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="77" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="77" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="77" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>803</v>
@@ -23824,18 +23623,18 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="17" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23843,18 +23642,18 @@
         <v>396</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23862,39 +23661,39 @@
         <v>405</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="77" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="77" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="77" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C39" s="77" t="s">
         <v>803</v>
@@ -23905,10 +23704,10 @@
         <v>102</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23916,10 +23715,10 @@
         <v>180</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23927,15 +23726,15 @@
         <v>196</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="82" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23943,15 +23742,15 @@
         <v>218</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C44" s="77" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="77" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="C45" s="77" t="s">
         <v>803</v>
@@ -23959,10 +23758,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -23987,7 +23786,7 @@
       <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="33.66"/>
   </cols>
@@ -24506,7 +24305,7 @@
         <v>223</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>1</v>
@@ -24757,7 +24556,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>106</v>
@@ -24796,7 +24595,7 @@
         <v>111</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>1</v>
@@ -24861,7 +24660,7 @@
         <v>184</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>1</v>
@@ -24929,7 +24728,7 @@
         <v>345</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>1</v>
@@ -24958,7 +24757,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>256</v>
@@ -25023,7 +24822,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>106</v>
@@ -25094,7 +24893,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>123</v>
@@ -25275,7 +25074,7 @@
         <v>410</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>1</v>
@@ -25343,7 +25142,7 @@
         <v>417</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="X20" s="0" t="n">
         <v>1</v>
@@ -25417,7 +25216,7 @@
         <v>61</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>1</v>
@@ -25677,7 +25476,7 @@
       <selection pane="bottomRight" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.84"/>
   </cols>
@@ -25774,7 +25573,7 @@
         <v>29</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25782,85 +25581,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="Q2" s="85" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>28</v>
@@ -25934,10 +25733,10 @@
         <v>5</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>570</v>
+        <v>994</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25993,10 +25792,10 @@
         <v>43</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>579</v>
+        <v>996</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26057,12 +25856,12 @@
         <v>5</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26138,7 +25937,7 @@
         <v>596</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26159,7 +25958,7 @@
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="AE12" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26229,7 +26028,7 @@
         <v>604</v>
       </c>
       <c r="AE13" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26307,7 +26106,7 @@
         <v>613</v>
       </c>
       <c r="AE14" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26383,7 +26182,7 @@
         <v>621</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26440,7 +26239,7 @@
         <v>628</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26517,7 +26316,7 @@
         <v>5</v>
       </c>
       <c r="AE17" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26597,13 +26396,13 @@
         <v>5</v>
       </c>
       <c r="AB18" s="20" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="AD18" s="20" t="s">
         <v>650</v>
       </c>
       <c r="AE18" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26653,7 +26452,7 @@
         <v>44894</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="S19" s="20" t="s">
         <v>659</v>
@@ -26680,7 +26479,7 @@
         <v>663</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26748,7 +26547,7 @@
         <v>672</v>
       </c>
       <c r="AE20" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26804,7 +26603,7 @@
         <v>680</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="X21" s="20" t="n">
         <v>1</v>
@@ -26819,7 +26618,7 @@
         <v>682</v>
       </c>
       <c r="AE21" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26885,7 +26684,7 @@
         <v>687</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26944,7 +26743,7 @@
         <v>184</v>
       </c>
       <c r="W23" s="92" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="X23" s="20" t="n">
         <v>1</v>
@@ -26956,13 +26755,13 @@
         <v>5</v>
       </c>
       <c r="AB23" s="20" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="AD23" s="20" t="s">
         <v>694</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27037,7 +26836,7 @@
         <v>701</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27106,10 +26905,10 @@
       </c>
       <c r="AB25" s="20"/>
       <c r="AD25" s="20" t="s">
-        <v>712</v>
+        <v>1010</v>
       </c>
       <c r="AE25" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27162,7 +26961,7 @@
         <v>5</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27240,7 +27039,7 @@
         <v>727</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27321,7 +27120,7 @@
         <v>739</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27399,7 +27198,7 @@
         <v>748</v>
       </c>
       <c r="AE29" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27471,7 +27270,7 @@
         <v>756</v>
       </c>
       <c r="AE30" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27479,7 +27278,7 @@
         <v>757</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C31" s="99" t="s">
         <v>759</v>
@@ -27506,7 +27305,7 @@
         <v>107</v>
       </c>
       <c r="L31" s="90" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>735</v>
@@ -27536,13 +27335,13 @@
         <v>1</v>
       </c>
       <c r="Z31" s="98" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="AA31" s="97" t="n">
         <v>3</v>
       </c>
       <c r="AE31" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27610,7 +27409,7 @@
         <v>774</v>
       </c>
       <c r="AE32" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27684,7 +27483,7 @@
         <v>781</v>
       </c>
       <c r="AE33" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27755,7 +27554,7 @@
         <v>792</v>
       </c>
       <c r="AE34" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27824,7 +27623,7 @@
         <v>798</v>
       </c>
       <c r="AE35" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27890,7 +27689,7 @@
         <v>804</v>
       </c>
       <c r="AE36" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27946,7 +27745,7 @@
         <v>810</v>
       </c>
       <c r="W37" s="90" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="X37" s="20" t="n">
         <v>1</v>
@@ -27958,23 +27757,23 @@
         <v>5</v>
       </c>
       <c r="AB37" s="90" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="AD37" s="20" t="s">
         <v>813</v>
       </c>
       <c r="AE37" s="0" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="39" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="103" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B39" s="103"/>
       <c r="C39" s="103"/>
       <c r="D39" s="103" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
@@ -27984,7 +27783,7 @@
         <v>819</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -28030,7 +27829,7 @@
       <selection pane="topLeft" activeCell="Y29" activeCellId="0" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -28124,7 +27923,7 @@
         <v>29</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28132,85 +27931,85 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="Q2" s="85" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>28</v>
@@ -28281,7 +28080,7 @@
         <v>818</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28355,7 +28154,7 @@
         <v>824</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28423,7 +28222,7 @@
         <v>830</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -28483,7 +28282,7 @@
         <v>837</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28554,7 +28353,7 @@
         <v>846</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28625,7 +28424,7 @@
         <v>854</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28687,7 +28486,7 @@
         <v>859</v>
       </c>
       <c r="AE10" s="20" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28747,10 +28546,10 @@
         <v>5</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>865</v>
+        <v>1139</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28809,13 +28608,13 @@
         <v>5</v>
       </c>
       <c r="AC12" s="90" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="AD12" s="90" t="s">
         <v>874</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28863,7 +28662,7 @@
         <v>880</v>
       </c>
       <c r="AE13" s="20" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28913,7 +28712,7 @@
         <v>885</v>
       </c>
       <c r="AE14" s="20" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28962,7 +28761,7 @@
       <c r="X15" s="90"/>
       <c r="AA15" s="90"/>
       <c r="AE15" s="20" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29005,7 +28804,7 @@
       <c r="X16" s="90"/>
       <c r="AA16" s="90"/>
       <c r="AE16" s="20" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29064,7 +28863,7 @@
         <v>903</v>
       </c>
       <c r="AE17" s="20" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29132,7 +28931,7 @@
         <v>909</v>
       </c>
       <c r="AE18" s="20" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29182,7 +28981,7 @@
         <v>2023</v>
       </c>
       <c r="AE19" s="20" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29232,7 +29031,7 @@
         <v>922</v>
       </c>
       <c r="AE20" s="20" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29290,7 +29089,7 @@
         <v>928</v>
       </c>
       <c r="AE21" s="20" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29340,7 +29139,7 @@
         <v>937</v>
       </c>
       <c r="AE22" s="20" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29393,7 +29192,7 @@
         <v>5</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29449,65 +29248,65 @@
         <v>948</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="25" s="114" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="114" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="95" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="95" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="115" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="W27" s="107" t="s">
         <v>836</v>
       </c>
       <c r="Z27" s="20"/>
       <c r="AE27" s="20" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="95" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="E28" s="115" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="W28" s="20" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="AE28" s="20" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
